--- a/libertadores/datasets_liberta/confrontos_fase_1_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase_1_libertadores.xlsx
@@ -106,57 +106,57 @@
     <t>3_E</t>
   </si>
   <si>
+    <t>3_F</t>
+  </si>
+  <si>
+    <t>1_F</t>
+  </si>
+  <si>
+    <t>4_G</t>
+  </si>
+  <si>
+    <t>3_G</t>
+  </si>
+  <si>
+    <t>4_H</t>
+  </si>
+  <si>
+    <t>3_H</t>
+  </si>
+  <si>
+    <t>1_A</t>
+  </si>
+  <si>
+    <t>2_A</t>
+  </si>
+  <si>
+    <t>1_B</t>
+  </si>
+  <si>
+    <t>2_B</t>
+  </si>
+  <si>
+    <t>1_C</t>
+  </si>
+  <si>
+    <t>2_C</t>
+  </si>
+  <si>
+    <t>1_D</t>
+  </si>
+  <si>
+    <t>2_D</t>
+  </si>
+  <si>
+    <t>1_E</t>
+  </si>
+  <si>
+    <t>2_E</t>
+  </si>
+  <si>
     <t>4_F</t>
   </si>
   <si>
-    <t>3_F</t>
-  </si>
-  <si>
-    <t>4_G</t>
-  </si>
-  <si>
-    <t>3_G</t>
-  </si>
-  <si>
-    <t>4_H</t>
-  </si>
-  <si>
-    <t>3_H</t>
-  </si>
-  <si>
-    <t>1_A</t>
-  </si>
-  <si>
-    <t>2_A</t>
-  </si>
-  <si>
-    <t>1_B</t>
-  </si>
-  <si>
-    <t>2_B</t>
-  </si>
-  <si>
-    <t>1_C</t>
-  </si>
-  <si>
-    <t>2_C</t>
-  </si>
-  <si>
-    <t>1_D</t>
-  </si>
-  <si>
-    <t>2_D</t>
-  </si>
-  <si>
-    <t>1_E</t>
-  </si>
-  <si>
-    <t>2_E</t>
-  </si>
-  <si>
-    <t>1_F</t>
-  </si>
-  <si>
     <t>2_F</t>
   </si>
   <si>
@@ -202,57 +202,57 @@
     <t>E.C. Bororé</t>
   </si>
   <si>
+    <t>TORRESMO COM PINGA</t>
+  </si>
+  <si>
+    <t>seralex</t>
+  </si>
+  <si>
+    <t>F.C. Rei Das Copas</t>
+  </si>
+  <si>
+    <t>KillerColorado</t>
+  </si>
+  <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
+    <t>FBC Colorado</t>
+  </si>
+  <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>BORGES ITAQUI F.C.</t>
+  </si>
+  <si>
+    <t>HS SPORTS F.C</t>
+  </si>
+  <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
+    <t>TEAM LOPES 99</t>
+  </si>
+  <si>
+    <t>cartola scheuer</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
+    <t>Real SCI</t>
+  </si>
+  <si>
+    <t>ITAQUI F. C.</t>
+  </si>
+  <si>
     <t>Lá do Itaqui</t>
   </si>
   <si>
-    <t>TORRESMO COM PINGA</t>
-  </si>
-  <si>
-    <t>F.C. Rei Das Copas</t>
-  </si>
-  <si>
-    <t>KillerColorado</t>
-  </si>
-  <si>
-    <t>Gig@ntte</t>
-  </si>
-  <si>
-    <t>FBC Colorado</t>
-  </si>
-  <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
-    <t>BORGES ITAQUI F.C.</t>
-  </si>
-  <si>
-    <t>HS SPORTS F.C</t>
-  </si>
-  <si>
-    <t>Tabajara de Inhaua FC2</t>
-  </si>
-  <si>
-    <t>TEAM LOPES 99</t>
-  </si>
-  <si>
-    <t>cartola scheuer</t>
-  </si>
-  <si>
-    <t>Texas Club 2025</t>
-  </si>
-  <si>
-    <t>Super Vasco f.c</t>
-  </si>
-  <si>
-    <t>Real SCI</t>
-  </si>
-  <si>
-    <t>ITAQUI F. C.</t>
-  </si>
-  <si>
-    <t>seralex</t>
-  </si>
-  <si>
     <t>FC Los Castilho</t>
   </si>
   <si>
@@ -298,57 +298,57 @@
     <t>Fortaleza</t>
   </si>
   <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Atlético Nacional</t>
+  </si>
+  <si>
+    <t>Cerro Porteño</t>
+  </si>
+  <si>
+    <t>Sporting Cristal</t>
+  </si>
+  <si>
+    <t>San Antônio Bulo Bulo</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Independiente del Valle</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>LDU</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
     <t>Internacional</t>
   </si>
   <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Cerro Porteño</t>
-  </si>
-  <si>
-    <t>Sporting Cristal</t>
-  </si>
-  <si>
-    <t>San Antônio Bulo Bulo</t>
-  </si>
-  <si>
-    <t>Velez Sarsfield</t>
-  </si>
-  <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
-    <t>Estudiantes</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Independiente del Valle</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>LDU</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Libertad</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Colo-Colo</t>
-  </si>
-  <si>
-    <t>Atlético Nacional</t>
-  </si>
-  <si>
     <t>Nacional</t>
   </si>
   <si>
@@ -394,55 +394,55 @@
     <t>Moodi</t>
   </si>
   <si>
+    <t>Marquinho</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Henrique</t>
+  </si>
+  <si>
+    <t>Ivanildo</t>
+  </si>
+  <si>
+    <t>Marllon</t>
+  </si>
+  <si>
+    <t>Paulo Augusto</t>
+  </si>
+  <si>
+    <t>Fumaco</t>
+  </si>
+  <si>
+    <t>Boka</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Cassiano</t>
+  </si>
+  <si>
     <t>Gerônimo</t>
-  </si>
-  <si>
-    <t>Marquinho</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Ronaldo</t>
-  </si>
-  <si>
-    <t>Adriano</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>Henrique</t>
-  </si>
-  <si>
-    <t>Ivanildo</t>
-  </si>
-  <si>
-    <t>Marllon</t>
-  </si>
-  <si>
-    <t>Paulo Augusto</t>
-  </si>
-  <si>
-    <t>Fumaco</t>
-  </si>
-  <si>
-    <t>Boka</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Cassiano</t>
-  </si>
-  <si>
-    <t>Alex</t>
   </si>
   <si>
     <t>Castilho</t>
@@ -1247,7 +1247,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>62</v>
       </c>
       <c r="F12">
-        <v>50158297</v>
+        <v>49128587</v>
       </c>
       <c r="G12" t="s">
         <v>94</v>
@@ -1265,16 +1265,16 @@
         <v>126</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12">
-        <v>25311459</v>
+        <v>50158297</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1285,7 +1285,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>63</v>
       </c>
       <c r="F13">
-        <v>49128587</v>
+        <v>29228373</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
@@ -1303,16 +1303,16 @@
         <v>127</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13">
-        <v>29228373</v>
+        <v>25311459</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1855,7 +1855,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>78</v>
       </c>
       <c r="F28">
-        <v>29228373</v>
+        <v>50158297</v>
       </c>
       <c r="G28" t="s">
         <v>110</v>
@@ -1873,16 +1873,16 @@
         <v>142</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J28">
-        <v>50158297</v>
+        <v>29228373</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1893,7 +1893,7 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1911,16 +1911,16 @@
         <v>143</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J29">
         <v>49128587</v>
       </c>
       <c r="K29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2460,37 +2460,37 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F44">
         <v>50158297</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J44">
-        <v>49128587</v>
+        <v>25311459</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2498,37 +2498,37 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F45">
-        <v>25311459</v>
+        <v>49128587</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J45">
         <v>29228373</v>
       </c>
       <c r="K45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3068,7 +3068,7 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
@@ -3077,22 +3077,22 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F60">
-        <v>50158297</v>
+        <v>29228373</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I60" t="s">
         <v>78</v>
       </c>
       <c r="J60">
-        <v>29228373</v>
+        <v>50158297</v>
       </c>
       <c r="K60" t="s">
         <v>110</v>
@@ -3106,7 +3106,7 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
@@ -3115,16 +3115,16 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61">
         <v>49128587</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I61" t="s">
         <v>79</v>
@@ -3676,37 +3676,37 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F76">
-        <v>49128587</v>
+        <v>25311459</v>
       </c>
       <c r="G76" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H76" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I76" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="J76">
         <v>50158297</v>
       </c>
       <c r="K76" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="L76" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3714,37 +3714,37 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F77">
         <v>29228373</v>
       </c>
       <c r="G77" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H77" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I77" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J77">
-        <v>25311459</v>
+        <v>49128587</v>
       </c>
       <c r="K77" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="L77" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4284,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
         <v>31</v>
@@ -4293,22 +4293,22 @@
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F92">
-        <v>29228373</v>
+        <v>25311459</v>
       </c>
       <c r="G92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H92" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I92" t="s">
         <v>63</v>
       </c>
       <c r="J92">
-        <v>49128587</v>
+        <v>29228373</v>
       </c>
       <c r="K92" t="s">
         <v>95</v>
@@ -4322,7 +4322,7 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -4331,22 +4331,22 @@
         <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F93">
-        <v>25311459</v>
+        <v>50158297</v>
       </c>
       <c r="G93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I93" t="s">
         <v>62</v>
       </c>
       <c r="J93">
-        <v>50158297</v>
+        <v>49128587</v>
       </c>
       <c r="K93" t="s">
         <v>94</v>
